--- a/ifs-solver/src/main/resources/input/2020-Sem1-CAES-Wvl-fixing-timeslots/Courses.xlsx
+++ b/ifs-solver/src/main/resources/input/2020-Sem1-CAES-Wvl-fixing-timeslots/Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Documents\CS Honours\COMP700 - HP\student-lab-sectioning\ifs-solver\src\main\resources\input\2020-Sem1-CAES-Wvl-fixing-timeslots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A185496-EC77-490F-9A53-AF33E8496FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A86B6-6D45-4142-A0D0-738327F94FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="60" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,11 +458,11 @@
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,14 +478,14 @@
       <c r="E1" t="s">
         <v>29</v>
       </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
       <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -501,14 +501,14 @@
       <c r="E2" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H2">
+      <c r="F2" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -524,14 +524,14 @@
       <c r="E3" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -547,14 +547,14 @@
       <c r="E4" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -570,14 +570,14 @@
       <c r="E5" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -593,15 +593,15 @@
       <c r="E6" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G6">
         <v>200</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -617,15 +617,15 @@
       <c r="E7" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G7">
         <v>200</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -641,14 +641,14 @@
       <c r="E8" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G8">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -664,14 +664,14 @@
       <c r="E9" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G9">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -687,14 +687,14 @@
       <c r="E10" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G10" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G10">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -710,14 +710,14 @@
       <c r="E11" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G11">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -733,14 +733,14 @@
       <c r="E12" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G12">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -756,14 +756,14 @@
       <c r="E13" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G13" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H13">
+      <c r="F13" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G13">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -779,14 +779,14 @@
       <c r="E14" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G14" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H14">
+      <c r="F14" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G14">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -802,14 +802,14 @@
       <c r="E15" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G15" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H15">
+      <c r="F15" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G15">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -825,14 +825,14 @@
       <c r="E16" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G16" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G16">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -848,14 +848,14 @@
       <c r="E17" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H17">
+      <c r="F17" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G17">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -871,14 +871,14 @@
       <c r="E18" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G18" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H18">
+      <c r="F18" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G18">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -894,14 +894,14 @@
       <c r="E19" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G19" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H19">
+      <c r="F19" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G19">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -917,14 +917,14 @@
       <c r="E20" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G20" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H20">
+      <c r="F20" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G20">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -940,14 +940,14 @@
       <c r="E21" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G21" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H21">
+      <c r="F21" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G21">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -963,14 +963,14 @@
       <c r="E22" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G22" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G22">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -986,14 +986,14 @@
       <c r="E23" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G23" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H23">
+      <c r="F23" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G23">
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1009,14 +1009,14 @@
       <c r="E24" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G24" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G24">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1032,14 +1032,14 @@
       <c r="E25" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G25" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H25">
+      <c r="F25" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1055,14 +1055,14 @@
       <c r="E26" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G26" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H26">
+      <c r="F26" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1078,14 +1078,14 @@
       <c r="E27" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G27" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H27">
+      <c r="F27" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G27">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1101,14 +1101,14 @@
       <c r="E28" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G28" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H28">
+      <c r="F28" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G28">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1124,14 +1124,14 @@
       <c r="E29" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G29" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H29">
+      <c r="F29" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G29">
         <v>750</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1147,14 +1147,14 @@
       <c r="E30" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G30" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H30">
+      <c r="F30" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G30">
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1170,14 +1170,14 @@
       <c r="E31" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G31" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H31">
+      <c r="F31" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G31">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1193,14 +1193,14 @@
       <c r="E32" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G32" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H32">
+      <c r="F32" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G32">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1216,14 +1216,14 @@
       <c r="E33" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G33" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H33">
+      <c r="F33" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G33">
         <v>491</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1239,14 +1239,14 @@
       <c r="E34" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G34" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H34">
+      <c r="F34" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G34">
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1262,14 +1262,14 @@
       <c r="E35" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G35" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H35">
+      <c r="F35" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G35">
         <v>491</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1285,14 +1285,14 @@
       <c r="E36" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G36" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H36">
+      <c r="F36" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G36">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1308,14 +1308,14 @@
       <c r="E37" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G37" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H37">
+      <c r="F37" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G37">
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1331,14 +1331,14 @@
       <c r="E38" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G38" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H38">
+      <c r="F38" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G38">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1354,14 +1354,14 @@
       <c r="E39" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G39" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H39">
+      <c r="F39" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G39">
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1377,14 +1377,14 @@
       <c r="E40" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G40" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H40">
+      <c r="F40" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G40">
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1400,14 +1400,14 @@
       <c r="E41" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G41" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H41">
+      <c r="F41" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G41">
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1423,14 +1423,14 @@
       <c r="E42" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G42" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H42">
+      <c r="F42" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G42">
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -1446,14 +1446,14 @@
       <c r="E43" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="G43" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H43">
+      <c r="F43" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G43">
         <v>491</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1469,10 +1469,10 @@
       <c r="E44" s="1">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G44" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H44">
+      <c r="F44" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G44">
         <v>544</v>
       </c>
     </row>
